--- a/Database/Bhairavi/Center database.xlsx
+++ b/Database/Bhairavi/Center database.xlsx
@@ -71,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -125,10 +125,55 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -143,7 +188,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -158,7 +203,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -181,15 +226,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +532,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -509,31 +554,31 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:6" ht="20" customHeight="1">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:6" ht="20" customHeight="1" thickBot="1">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
